--- a/EXCEL_SHEETS/COLUMN_MAPPING_HIDATA_NEW.xlsx
+++ b/EXCEL_SHEETS/COLUMN_MAPPING_HIDATA_NEW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
   <dimension ref="B1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F66"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
